--- a/docs/readthedocs/test_files/A1_MTO_MTS/scénarios.xlsx
+++ b/docs/readthedocs/test_files/A1_MTO_MTS/scénarios.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="155" documentId="11_AD4D9D64A577C11A406BCC562F1978865ADEDD92" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{F448E440-A6D5-445D-A1BB-79C7EF1975CB}"/>
+  <xr:revisionPtr revIDLastSave="158" documentId="11_AD4D9D64A577C11A406BCC562F1978865ADEDD92" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{721A2C43-B8FA-4ECF-9A31-7B1317002777}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>racine</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>MTS-MTO_MTS</t>
+  </si>
+  <si>
+    <t>1 MO (1) + 1 PO(2)</t>
   </si>
 </sst>
 </file>
@@ -79,8 +82,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -361,20 +365,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="7" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="4" max="7" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -385,7 +390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -396,7 +401,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -407,7 +412,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -418,7 +423,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -429,7 +434,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -440,7 +445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -451,12 +456,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -467,7 +472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>A2</f>
         <v>1</v>
@@ -480,8 +485,11 @@
         <f>"S" &amp; $A11 &amp; "_" &amp; "N" &amp; C$10  &amp; "_" &amp; C2</f>
         <v>S1_N1_MTO-MTO_MTS</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ref="A12:A16" si="0">A3</f>
         <v>2</v>
@@ -495,7 +503,7 @@
         <v>S2_N1_MTO-MTO_MTS</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -509,7 +517,7 @@
         <v>S3_N1_MTO-MTO_MTS</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -523,7 +531,7 @@
         <v>S4_N1_MTS-MTO_MTS</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -537,7 +545,7 @@
         <v>S5_N1_MTO</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>6</v>
